--- a/biology/Médecine/Hôpital_de_l'amitié_sino-guinéenne/Hôpital_de_l'amitié_sino-guinéenne.xlsx
+++ b/biology/Médecine/Hôpital_de_l'amitié_sino-guinéenne/Hôpital_de_l'amitié_sino-guinéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
+          <t>Hôpital_de_l'amitié_sino-guinéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital de l'amitié sino-guinéenne (HASIGUI) est un hôpital de Conakry en république de Guinée, construit en 2010.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
+          <t>Hôpital_de_l'amitié_sino-guinéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital de l'amitié sino-guinéenne est situé à Kipé dans la commune de Ratoma.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
+          <t>Hôpital_de_l'amitié_sino-guinéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,14 +554,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Listes des directeurs
-Listes de la chef de la délégation chinois
-Dans l'actualité</t>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa construction elle collabore avec des scientifiques de la chine qui est a sa 29e promotion.
+</t>
         </is>
       </c>
     </row>
@@ -557,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
+          <t>Hôpital_de_l'amitié_sino-guinéenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,44 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Dans la culture</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depuis sa construction elle collabore avec des scientifiques de la chine qui est a sa 29e promotion.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_l%27amiti%C3%A9_sino-guin%C3%A9enne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Dans la culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>littérature
-2022 : L'hôpital de l'amitié sino-guinéenne : mes 10 années de premier directeur à l'Hasigui par Fodé Ibrahima Kandia Camara aux éditions L'Harmattan Guinée[4].</t>
+          <t>littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2022 : L'hôpital de l'amitié sino-guinéenne : mes 10 années de premier directeur à l'Hasigui par Fodé Ibrahima Kandia Camara aux éditions L'Harmattan Guinée.</t>
         </is>
       </c>
     </row>
